--- a/users.xlsx
+++ b/users.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4483DA0A-EC12-4686-AC93-A5EE419CC3F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Reg_no</t>
   </si>
@@ -123,13 +122,34 @@
   </si>
   <si>
     <t>dept_name</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Technical staff</t>
+  </si>
+  <si>
+    <t>security and assistance</t>
+  </si>
+  <si>
+    <t>Mantainance department</t>
+  </si>
+  <si>
+    <t>lamborghini</t>
+  </si>
+  <si>
+    <t>Phone no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,29 +452,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -468,10 +487,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>250024</v>
       </c>
@@ -479,16 +501,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
+        <v>8247032129</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>250025</v>
       </c>
@@ -502,10 +527,13 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>9393398750</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>250026</v>
       </c>
@@ -519,10 +547,13 @@
         <v>23</v>
       </c>
       <c r="E4">
+        <v>9393398750</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>250027</v>
       </c>
@@ -536,10 +567,13 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>9393398750</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>250028</v>
       </c>
@@ -553,10 +587,13 @@
         <v>25</v>
       </c>
       <c r="E6">
+        <v>9393398750</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>250029</v>
       </c>
@@ -570,10 +607,13 @@
         <v>26</v>
       </c>
       <c r="E7">
+        <v>9393398750</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>250030</v>
       </c>
@@ -587,10 +627,13 @@
         <v>27</v>
       </c>
       <c r="E8">
+        <v>9393398750</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>250031</v>
       </c>
@@ -604,10 +647,13 @@
         <v>28</v>
       </c>
       <c r="E9">
+        <v>9393398750</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>250032</v>
       </c>
@@ -621,10 +667,13 @@
         <v>29</v>
       </c>
       <c r="E10">
+        <v>9393398750</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>250033</v>
       </c>
@@ -638,10 +687,13 @@
         <v>30</v>
       </c>
       <c r="E11">
+        <v>9393398750</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>250034</v>
       </c>
@@ -655,6 +707,9 @@
         <v>31</v>
       </c>
       <c r="E12">
+        <v>9393398750</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
     </row>
@@ -664,24 +719,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F7768F-9614-4BAF-9B33-32D659248605}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
